--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -67501,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -63961,7 +63961,9 @@
       <c r="P1198" t="n">
         <v>0</v>
       </c>
-      <c r="Q1198" t="inlineStr"/>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -67613,7 +67613,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1199"/>
+  <dimension ref="A1:R1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67617,6 +67617,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>27538</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>27850</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>27086.19921875</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>27403.80078125</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>27403.80078125</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>154045</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>27400.05078125</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>28242</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>27086.25</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>27870.400390625</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>27870.400390625</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>238583</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1201"/>
+  <dimension ref="A1:R1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -67549,7 +67549,7 @@
         <v>23</v>
       </c>
       <c r="O1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1198" t="n">
         <v>0</v>
@@ -67669,7 +67669,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67723,7 +67725,441 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>27994</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>28614.94921875</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>27170</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>27528.69921875</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>27474.46875</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>207314</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>27510</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>28001</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>26951.94921875</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>27665.5</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>27611</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>128392</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>27555</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>28683.19921875</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>26811.05078125</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>27284.150390625</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>27230.40234375</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>242361</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>27207.099609375</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>28395</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>27001</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>27566.75</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>27512.4453125</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>206955</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>27800</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>27899.80078125</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>26960.099609375</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>27295.349609375</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>27295.349609375</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>250201</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>27000</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>27092.599609375</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>23850</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>24296.599609375</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>24296.599609375</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>909139</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>24310</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>24700.05078125</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>24008.44921875</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>24642.849609375</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>24642.849609375</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>229295</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>24830.30078125</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>25224.94921875</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>24600</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>24706.05078125</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>24706.05078125</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>118630</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHREECEM.NS.xlsx
+++ b/stock_historical_data/1wk/SHREECEM.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1209"/>
+  <dimension ref="A1:R1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67781,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67835,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67889,7 +67893,9 @@
       <c r="Q1204" t="n">
         <v>1</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67943,7 +67949,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67997,7 +68005,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68043,7 +68053,7 @@
         <v>32</v>
       </c>
       <c r="O1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1207" t="n">
         <v>0</v>
@@ -68051,7 +68061,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68105,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68159,7 +68173,1621 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>24706.69522312932</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>25516.14408610408</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>24496.12360763041</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>25436.38671875</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>185931</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>25544.19480650217</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>26232.95973094478</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>25214.78549481222</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>25564.607421875</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>234879</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>25506.26258160282</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>26097.90088409766</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>25267.99062827388</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>25836.76953125</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>113569</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>25954.45793630632</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>26003.37022579054</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>24646.50260724735</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>25096.6953125</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>117427</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>25176.85201145181</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>26502.47485941026</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>24907.48543938843</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>26200.916015625</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>169830</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>26102.19294257628</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>26651.10900419592</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>25818.70130634959</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>25987.59765625</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>128600</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>25987.59888029237</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>26121.16016265708</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>24176.59632659699</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>24293.48828125</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>162583</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>24391.26253720735</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>24922.06073054314</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>24006.95166850161</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>24281.708984375</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>80488</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>24276.86765196499</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>25319.99713539582</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>23956.89064635862</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>24912.12890625</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>233887</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>24918.31607203296</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>25509.25638828675</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>24912.17669064609</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>25195.869140625</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>97728</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>25195.86930806802</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>25354.53400776505</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>24202.10056241211</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>24489.0859375</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>58433</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>24456.14611327974</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>24518.03513609702</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>23457.93606783976</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>24048.576171875</v>
+      </c>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="n">
+        <v>185591</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>23941.96721578483</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>24777.5684097692</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>23778.45963932058</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>24750.3671875</v>
+      </c>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="n">
+        <v>102046</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>24927.60138069907</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>26282.87037318606</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>24758.60364094697</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>26029.7734375</v>
+      </c>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="n">
+        <v>187853</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>25953.46039112776</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>27471.73782400874</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>25953.46039112776</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>27028.18359375</v>
+      </c>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="n">
+        <v>196975</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>27027.53398181134</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>27638.38781195274</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>26405.69984166108</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>27542.060546875</v>
+      </c>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="n">
+        <v>96780</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>27452.77173057693</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>28443.89484071542</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>26951.6703049079</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>27015.056640625</v>
+      </c>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="n">
+        <v>126701</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>27082.58641974355</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>27334.93274531148</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>25818.35341794435</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>26002.373046875</v>
+      </c>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>170376</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>25943.4772993306</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>26906.74992702795</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>25131.03380921533</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>26049.537109375</v>
+      </c>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="n">
+        <v>192260</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>26074.24467442353</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>26280.82346408963</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>25504.3174271375</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>25692.23046875</v>
+      </c>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="n">
+        <v>127746</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>25382.08440794113</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>25747.82894477572</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>24773.37711487735</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>25270.134765625</v>
+      </c>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="n">
+        <v>123156</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>25270.13406925011</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>26346.15568743301</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>24922.85837676126</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>25736.998046875</v>
+      </c>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="n">
+        <v>148538</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>25554.17660225663</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>27949.88065871819</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>24818.04740025922</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>27314.76953125</v>
+      </c>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="n">
+        <v>224875</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>26951.66950495311</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>28547.25747029387</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>26808.47706293482</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>28198.533203125</v>
+      </c>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="n">
+        <v>167681</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>28308</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>28750</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>27352.400390625</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>28556.05078125</v>
+      </c>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="n">
+        <v>188170</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>28490</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>28900</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>28007.650390625</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>28405.69921875</v>
+      </c>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="n">
+        <v>108864</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>28301</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>28589</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>27002.19921875</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>27284</v>
+      </c>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="n">
+        <v>168337</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>27284</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>28548</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>27151.05078125</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>27985.19921875</v>
+      </c>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="n">
+        <v>183314</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>27985.19921875</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>28351</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>27251.05078125</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>27495.150390625</v>
+      </c>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="n">
+        <v>77076</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>27495.150390625</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>29320</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>27373.349609375</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>28987.400390625</v>
+      </c>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="n">
+        <v>179712</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>29050</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>31237.94921875</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>28931</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>30502.94921875</v>
+      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="n">
+        <v>254097</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
